--- a/2DNetwork/Results/Occupancy_summary.xlsx
+++ b/2DNetwork/Results/Occupancy_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research_Projects\SUMO_TrafficNetwork\2DNetwork\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6480AE79-BCD4-4639-B770-FFA5E4CD18C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AD1AF94-C6C3-4434-9C0C-6A58C1A46DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{A8B1A320-E5B4-4887-BFE2-5F863971C0BF}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{002490AD-426E-41DC-AB2B-2B800FD3BF40}"/>
   </bookViews>
   <sheets>
     <sheet name="Occupancy_summary" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,7 +559,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -934,16 +934,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794E7B1C-D3AB-47D8-8FF7-E3F8E3EA9148}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FFEA3E-ACEE-4AB5-A7D8-48EFA6CEA471}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -972,301 +972,292 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1">
-        <v>35.115526315789403</v>
-      </c>
-      <c r="C2" s="1">
-        <v>11.795877192982401</v>
-      </c>
-      <c r="D2" s="1">
-        <v>12.5470614035087</v>
-      </c>
-      <c r="E2" s="1">
-        <v>10.1635087719298</v>
+      <c r="B2">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="C2">
+        <v>11.72</v>
+      </c>
+      <c r="D2">
+        <v>12.47</v>
+      </c>
+      <c r="E2">
+        <v>10.36</v>
       </c>
       <c r="F2" s="1">
-        <v>16.340526315789401</v>
-      </c>
-      <c r="G2" s="1">
-        <v>9.6845614035087699</v>
-      </c>
-      <c r="H2" s="1">
-        <v>8.6764912280701694</v>
-      </c>
-      <c r="I2" s="1">
-        <v>12.643070175438501</v>
-      </c>
-      <c r="J2" s="1">
-        <v>9.66166666666666</v>
+        <v>16.38</v>
+      </c>
+      <c r="G2">
+        <v>9.9</v>
+      </c>
+      <c r="H2">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="I2">
+        <v>12.28</v>
+      </c>
+      <c r="J2">
+        <v>10.32</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
-        <v>67.495219298245601</v>
-      </c>
-      <c r="C3" s="1">
-        <v>25.266622807017502</v>
-      </c>
-      <c r="D3" s="1">
-        <v>27.5130701754385</v>
-      </c>
-      <c r="E3" s="1">
-        <v>26.363815789473598</v>
-      </c>
-      <c r="F3" s="1">
-        <v>30.9577631578947</v>
-      </c>
-      <c r="G3" s="1">
-        <v>24.182982456140302</v>
+      <c r="B3">
+        <v>66.48</v>
+      </c>
+      <c r="C3">
+        <v>25.23</v>
+      </c>
+      <c r="D3">
+        <v>27.28</v>
+      </c>
+      <c r="E3">
+        <v>25.88</v>
+      </c>
+      <c r="F3">
+        <v>30.98</v>
+      </c>
+      <c r="G3">
+        <v>24.5</v>
       </c>
       <c r="H3" s="1">
-        <v>16.469035087719199</v>
-      </c>
-      <c r="I3" s="1">
-        <v>22.095614035087699</v>
-      </c>
-      <c r="J3" s="1">
-        <v>17.6164912280701</v>
+        <v>17.38</v>
+      </c>
+      <c r="I3">
+        <v>22.15</v>
+      </c>
+      <c r="J3">
+        <v>19.36</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1">
-        <v>33.180043859649103</v>
-      </c>
-      <c r="C4" s="1">
-        <v>20.825219298245599</v>
-      </c>
-      <c r="D4" s="1">
-        <v>20.488859649122801</v>
-      </c>
-      <c r="E4" s="1">
-        <v>17.870131578947301</v>
+      <c r="B4">
+        <v>32.6</v>
+      </c>
+      <c r="C4">
+        <v>20.84</v>
+      </c>
+      <c r="D4">
+        <v>20.96</v>
+      </c>
+      <c r="E4">
+        <v>18.489999999999998</v>
       </c>
       <c r="F4" s="1">
-        <v>16.120043859649101</v>
-      </c>
-      <c r="G4" s="1">
-        <v>19.9792105263157</v>
-      </c>
-      <c r="H4" s="1">
-        <v>17.5906578947368</v>
-      </c>
-      <c r="I4" s="1">
-        <v>17.604649122807</v>
-      </c>
-      <c r="J4" s="1">
-        <v>20.677675438596399</v>
+        <v>16.38</v>
+      </c>
+      <c r="G4">
+        <v>19.8</v>
+      </c>
+      <c r="H4">
+        <v>17.41</v>
+      </c>
+      <c r="I4">
+        <v>17.96</v>
+      </c>
+      <c r="J4">
+        <v>20.55</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1">
-        <v>21.5993157894736</v>
-      </c>
-      <c r="C5" s="1">
-        <v>8.31299999999999</v>
-      </c>
-      <c r="D5" s="1">
-        <v>8.2643684210526303</v>
-      </c>
-      <c r="E5" s="1">
-        <v>8.2729999999999997</v>
-      </c>
-      <c r="F5" s="1">
-        <v>8.2978421052631592</v>
-      </c>
-      <c r="G5" s="1">
-        <v>8.3288421052631492</v>
-      </c>
-      <c r="H5" s="1">
-        <v>8.2947368421052605</v>
+      <c r="B5">
+        <v>23.02</v>
+      </c>
+      <c r="C5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D5">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="E5">
+        <v>8.27</v>
+      </c>
+      <c r="F5">
+        <v>8.32</v>
+      </c>
+      <c r="G5">
+        <v>8.32</v>
+      </c>
+      <c r="H5">
+        <v>8.3000000000000007</v>
       </c>
       <c r="I5" s="1">
-        <v>8.3295263157894706</v>
-      </c>
-      <c r="J5" s="1">
-        <v>8.2705263157894695</v>
+        <v>8.33</v>
+      </c>
+      <c r="J5">
+        <v>8.26</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1">
-        <v>30.202763157894701</v>
-      </c>
-      <c r="C6" s="1">
-        <v>18.7841228070175</v>
-      </c>
-      <c r="D6" s="1">
-        <v>19.2211403508771</v>
-      </c>
-      <c r="E6" s="1">
-        <v>19.661228070175401</v>
-      </c>
-      <c r="F6" s="1">
-        <v>19.940657894736798</v>
+      <c r="B6">
+        <v>30.08</v>
+      </c>
+      <c r="C6">
+        <v>18.97</v>
+      </c>
+      <c r="D6">
+        <v>19.3</v>
+      </c>
+      <c r="E6">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="F6">
+        <v>20.29</v>
       </c>
       <c r="G6" s="1">
-        <v>18.5832017543859</v>
-      </c>
-      <c r="H6" s="1">
-        <v>21.6527631578947</v>
-      </c>
-      <c r="I6" s="1">
-        <v>20.309210526315699</v>
-      </c>
-      <c r="J6" s="1">
-        <v>22.767280701754299</v>
+        <v>18.64</v>
+      </c>
+      <c r="H6">
+        <v>21.42</v>
+      </c>
+      <c r="I6">
+        <v>20.61</v>
+      </c>
+      <c r="J6">
+        <v>22.78</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1">
-        <v>42.169824561403502</v>
-      </c>
-      <c r="C7" s="1">
-        <v>25.625877192982401</v>
-      </c>
-      <c r="D7" s="1">
-        <v>27.932587719298201</v>
-      </c>
-      <c r="E7" s="1">
-        <v>23.599561403508702</v>
-      </c>
-      <c r="F7" s="1">
-        <v>27.2570614035087</v>
-      </c>
-      <c r="G7" s="1">
-        <v>25.154649122807001</v>
+      <c r="B7">
+        <v>42.17</v>
+      </c>
+      <c r="C7">
+        <v>24.89</v>
+      </c>
+      <c r="D7">
+        <v>27.57</v>
+      </c>
+      <c r="E7">
+        <v>23.26</v>
+      </c>
+      <c r="F7">
+        <v>27.03</v>
+      </c>
+      <c r="G7">
+        <v>25.2</v>
       </c>
       <c r="H7" s="1">
-        <v>21.779517543859601</v>
-      </c>
-      <c r="I7" s="1">
-        <v>26.9438157894736</v>
-      </c>
-      <c r="J7" s="1">
-        <v>26.056578947368401</v>
+        <v>20.57</v>
+      </c>
+      <c r="I7">
+        <v>26.78</v>
+      </c>
+      <c r="J7">
+        <v>26.11</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1">
-        <v>36.1364736842105</v>
-      </c>
-      <c r="C8" s="1">
-        <v>31.179578947368402</v>
-      </c>
-      <c r="D8" s="1">
-        <v>32.888736842105203</v>
-      </c>
-      <c r="E8" s="1">
-        <v>31.137526315789401</v>
-      </c>
-      <c r="F8" s="1">
-        <v>32.765421052631503</v>
+      <c r="B8">
+        <v>36.69</v>
+      </c>
+      <c r="C8">
+        <v>30.78</v>
+      </c>
+      <c r="D8">
+        <v>32.619999999999997</v>
+      </c>
+      <c r="E8">
+        <v>30.82</v>
+      </c>
+      <c r="F8">
+        <v>32.479999999999997</v>
       </c>
       <c r="G8" s="1">
-        <v>29.8320526315789</v>
-      </c>
-      <c r="H8" s="1">
-        <v>30.231263157894698</v>
-      </c>
-      <c r="I8" s="1">
-        <v>31.128157894736798</v>
-      </c>
-      <c r="J8" s="1">
-        <v>30.880894736842102</v>
+        <v>29.64</v>
+      </c>
+      <c r="H8">
+        <v>30.04</v>
+      </c>
+      <c r="I8">
+        <v>31.15</v>
+      </c>
+      <c r="J8">
+        <v>30.9</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1">
-        <v>14.7566842105263</v>
-      </c>
-      <c r="C9" s="1">
-        <v>13.8718947368421</v>
-      </c>
-      <c r="D9" s="1">
-        <v>12.612947368421001</v>
-      </c>
-      <c r="E9" s="1">
-        <v>13.5761052631578</v>
-      </c>
-      <c r="F9" s="1">
-        <v>13.7146842105263</v>
+      <c r="B9">
+        <v>16.3</v>
+      </c>
+      <c r="C9">
+        <v>13.76</v>
+      </c>
+      <c r="D9">
+        <v>12.82</v>
+      </c>
+      <c r="E9">
+        <v>13.61</v>
+      </c>
+      <c r="F9">
+        <v>13.81</v>
       </c>
       <c r="G9" s="1">
-        <v>14.417736842105199</v>
-      </c>
-      <c r="H9" s="1">
-        <v>13.6018947368421</v>
-      </c>
-      <c r="I9" s="1">
-        <v>13.532</v>
-      </c>
-      <c r="J9" s="1">
-        <v>13.4228947368421</v>
+        <v>14.36</v>
+      </c>
+      <c r="H9">
+        <v>13.65</v>
+      </c>
+      <c r="I9">
+        <v>13.77</v>
+      </c>
+      <c r="J9">
+        <v>13.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1">
-        <f>AVERAGE(B2:B9)</f>
-        <v>35.081981359649092</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" ref="C10:J10" si="0">AVERAGE(C2:C9)</f>
-        <v>19.457774122806988</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>20.183596491228016</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>18.830609649122749</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>20.674249999999958</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>18.770404605263113</v>
+      <c r="B10">
+        <v>35.64</v>
+      </c>
+      <c r="C10">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="D10">
+        <v>20.16</v>
+      </c>
+      <c r="E10">
+        <v>18.75</v>
+      </c>
+      <c r="F10">
+        <v>20.71</v>
+      </c>
+      <c r="G10">
+        <v>18.8</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="0"/>
-        <v>17.287044956140317</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>19.073255482456098</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="0"/>
-        <v>18.669251096491191</v>
+        <v>17.2</v>
+      </c>
+      <c r="I10">
+        <v>19.13</v>
+      </c>
+      <c r="J10">
+        <v>18.97</v>
       </c>
     </row>
   </sheetData>
